--- a/biology/Médecine/Alexander_Schmidt_(physiologiste)/Alexander_Schmidt_(physiologiste).xlsx
+++ b/biology/Médecine/Alexander_Schmidt_(physiologiste)/Alexander_Schmidt_(physiologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Adolf Alexander Schmidt (15 mai 1831 - 22 avril 1894) est un physiologiste germano-balte du Gouvernement de Livonie dans l'Empire russe.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né sur l'île de Mohn, connue aujourd'hui sous son nom estonien de Muhu, dans l'actuelle Estonie.
 En 1858, il reçoit son doctorat en médecine à l'Université de Dorpat et devient ensuite l'assistant de Felix Hoppe-Seyler (1825-1895) à Berlin, puis de Carl Ludwig (1816-1895) à Leipzig.
-En 1869, il succède à Friedrich Bidder (1810-1894) au poste de professeur de physiologie à Dorpat, poste qu'il occupera jusqu'à la fin de sa vie. Il occupa également de 1885 à 1889 la fonction de recteur de l'université[1].
-Schmidt est connu pour ses recherches concernant le processus de coagulation sanguine. Il a notamment démontré que la formation du caillot était due à la transformation de fibrinogène soluble en fibrine insoluble grâce à un processus enzymatique[2],[3]. Il nomma cet hypothétique enzyme « thrombine » et appela son précurseur « prothrombine »[3].
+En 1869, il succède à Friedrich Bidder (1810-1894) au poste de professeur de physiologie à Dorpat, poste qu'il occupera jusqu'à la fin de sa vie. Il occupa également de 1885 à 1889 la fonction de recteur de l'université.
+Schmidt est connu pour ses recherches concernant le processus de coagulation sanguine. Il a notamment démontré que la formation du caillot était due à la transformation de fibrinogène soluble en fibrine insoluble grâce à un processus enzymatique,. Il nomma cet hypothétique enzyme « thrombine » et appela son précurseur « prothrombine ».
 Par conséquent, Schmidt est reconnu pour avoir posé les bases nécessaires à la création des systèmes d'anticoagulation et au développement de la transfusion sanguine.
 </t>
         </is>
